--- a/Data/g8.4.xlsx
+++ b/Data/g8.4.xlsx
@@ -1119,19 +1119,19 @@
         <v>2025</v>
       </c>
       <c r="B30" t="n">
-        <v>0.348109917428716</v>
+        <v>0.3483585979633227</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03748291803503139</v>
+        <v>0.03768746283391879</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>17.748398072926</v>
+        <v>18.12618968769989</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8205146833140167</v>
+        <v>0.7016160473013713</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>

--- a/Data/g8.4.xlsx
+++ b/Data/g8.4.xlsx
@@ -1119,19 +1119,19 @@
         <v>2025</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3483585979633227</v>
+        <v>0.3482219046903354</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03768746283391879</v>
+        <v>0.03758205882370576</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>18.12618968769989</v>
+        <v>18.25943538306515</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7016160473013713</v>
+        <v>0.6544309881107288</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
